--- a/Daisy-xls/ResearchPages/research-colorectal-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-colorectal-cancer.xlsx
@@ -224,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,12 +247,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -310,6 +325,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -654,7 +672,9 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="20">
+        <v>487763</v>
+      </c>
       <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
@@ -671,7 +691,9 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14">
+        <v>897081</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -687,7 +709,9 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14">
+        <v>894075</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
@@ -703,7 +727,9 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="20">
+        <v>804905</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
@@ -719,7 +745,9 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="20">
+        <v>799624</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
@@ -737,7 +765,9 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="20">
+        <v>761484</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
@@ -755,7 +785,9 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="20">
+        <v>588480</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
@@ -773,7 +805,9 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="20">
+        <v>333718</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
@@ -789,7 +823,9 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="20">
+        <v>315512</v>
+      </c>
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
@@ -807,7 +843,9 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="20">
+        <v>300957</v>
+      </c>
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -823,7 +861,9 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="20">
+        <v>253797</v>
+      </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
@@ -841,7 +881,9 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="20">
+        <v>139071</v>
+      </c>
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
@@ -859,7 +901,9 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="20">
+        <v>107272</v>
+      </c>
       <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
@@ -877,7 +921,9 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="20">
+        <v>70026</v>
+      </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
